--- a/natmiOut/OldD7/LR-pairs_lrc2p/Efna2-Epha4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Efna2-Epha4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.767920730155892</v>
+        <v>1.417859666666667</v>
       </c>
       <c r="H2">
-        <v>0.767920730155892</v>
+        <v>4.253579</v>
       </c>
       <c r="I2">
-        <v>0.09130957870156291</v>
+        <v>0.1472651073415806</v>
       </c>
       <c r="J2">
-        <v>0.09130957870156291</v>
+        <v>0.1472651073415806</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.14773152424498</v>
+        <v>7.189414999999999</v>
       </c>
       <c r="N2">
-        <v>7.14773152424498</v>
+        <v>21.568245</v>
       </c>
       <c r="O2">
-        <v>0.3432077944869921</v>
+        <v>0.3327435204651371</v>
       </c>
       <c r="P2">
-        <v>0.3432077944869921</v>
+        <v>0.3327435204651371</v>
       </c>
       <c r="Q2">
-        <v>5.488891211056492</v>
+        <v>10.19358155542833</v>
       </c>
       <c r="R2">
-        <v>5.488891211056492</v>
+        <v>91.742233998855</v>
       </c>
       <c r="S2">
-        <v>0.03133815912169984</v>
+        <v>0.04900151025851383</v>
       </c>
       <c r="T2">
-        <v>0.03133815912169984</v>
+        <v>0.04900151025851384</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.767920730155892</v>
+        <v>1.417859666666667</v>
       </c>
       <c r="H3">
-        <v>0.767920730155892</v>
+        <v>4.253579</v>
       </c>
       <c r="I3">
-        <v>0.09130957870156291</v>
+        <v>0.1472651073415806</v>
       </c>
       <c r="J3">
-        <v>0.09130957870156291</v>
+        <v>0.1472651073415806</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.8321182519589</v>
+        <v>12.90571233333333</v>
       </c>
       <c r="N3">
-        <v>12.8321182519589</v>
+        <v>38.717137</v>
       </c>
       <c r="O3">
-        <v>0.6161511507409755</v>
+        <v>0.5973075912162077</v>
       </c>
       <c r="P3">
-        <v>0.6161511507409755</v>
+        <v>0.5973075912162077</v>
       </c>
       <c r="Q3">
-        <v>9.854049617491027</v>
+        <v>18.29848898703589</v>
       </c>
       <c r="R3">
-        <v>9.854049617491027</v>
+        <v>164.686400883323</v>
       </c>
       <c r="S3">
-        <v>0.05626050199064165</v>
+        <v>0.08796256653639577</v>
       </c>
       <c r="T3">
-        <v>0.05626050199064165</v>
+        <v>0.08796256653639579</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.767920730155892</v>
+        <v>1.417859666666667</v>
       </c>
       <c r="H4">
-        <v>0.767920730155892</v>
+        <v>4.253579</v>
       </c>
       <c r="I4">
-        <v>0.09130957870156291</v>
+        <v>0.1472651073415806</v>
       </c>
       <c r="J4">
-        <v>0.09130957870156291</v>
+        <v>0.1472651073415806</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.846400789955351</v>
+        <v>0.02123933333333333</v>
       </c>
       <c r="N4">
-        <v>0.846400789955351</v>
+        <v>0.063718</v>
       </c>
       <c r="O4">
-        <v>0.04064105477203254</v>
+        <v>0.0009830077336842938</v>
       </c>
       <c r="P4">
-        <v>0.04064105477203254</v>
+        <v>0.0009830077336842938</v>
       </c>
       <c r="Q4">
-        <v>0.6499687126270369</v>
+        <v>0.03011439408022222</v>
       </c>
       <c r="R4">
-        <v>0.6499687126270369</v>
+        <v>0.271029546722</v>
       </c>
       <c r="S4">
-        <v>0.003710917589221434</v>
+        <v>0.0001447627394186214</v>
       </c>
       <c r="T4">
-        <v>0.003710917589221434</v>
+        <v>0.0001447627394186214</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.05493698470008</v>
+        <v>1.417859666666667</v>
       </c>
       <c r="H5">
-        <v>6.05493698470008</v>
+        <v>4.253579</v>
       </c>
       <c r="I5">
-        <v>0.7199620005377894</v>
+        <v>0.1472651073415806</v>
       </c>
       <c r="J5">
-        <v>0.7199620005377894</v>
+        <v>0.1472651073415806</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.14773152424498</v>
+        <v>1.490109666666666</v>
       </c>
       <c r="N5">
-        <v>7.14773152424498</v>
+        <v>4.470329</v>
       </c>
       <c r="O5">
-        <v>0.3432077944869921</v>
+        <v>0.0689658805849709</v>
       </c>
       <c r="P5">
-        <v>0.3432077944869921</v>
+        <v>0.0689658805849709</v>
       </c>
       <c r="Q5">
-        <v>43.27906396285761</v>
+        <v>2.112766395276778</v>
       </c>
       <c r="R5">
-        <v>43.27906396285761</v>
+        <v>19.014897557491</v>
       </c>
       <c r="S5">
-        <v>0.2470965703190173</v>
+        <v>0.01015626780725237</v>
       </c>
       <c r="T5">
-        <v>0.2470965703190173</v>
+        <v>0.01015626780725237</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.05493698470008</v>
+        <v>6.189892666666666</v>
       </c>
       <c r="H6">
-        <v>6.05493698470008</v>
+        <v>18.569678</v>
       </c>
       <c r="I6">
-        <v>0.7199620005377894</v>
+        <v>0.6429093297593833</v>
       </c>
       <c r="J6">
-        <v>0.7199620005377894</v>
+        <v>0.6429093297593833</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.8321182519589</v>
+        <v>7.189414999999999</v>
       </c>
       <c r="N6">
-        <v>12.8321182519589</v>
+        <v>21.568245</v>
       </c>
       <c r="O6">
-        <v>0.6161511507409755</v>
+        <v>0.3327435204651371</v>
       </c>
       <c r="P6">
-        <v>0.6161511507409755</v>
+        <v>0.3327435204651371</v>
       </c>
       <c r="Q6">
-        <v>77.69766739583088</v>
+        <v>44.50170718612333</v>
       </c>
       <c r="R6">
-        <v>77.69766739583088</v>
+        <v>400.5153646751099</v>
       </c>
       <c r="S6">
-        <v>0.4436054151211337</v>
+        <v>0.2139239137240189</v>
       </c>
       <c r="T6">
-        <v>0.4436054151211337</v>
+        <v>0.2139239137240189</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.05493698470008</v>
+        <v>6.189892666666666</v>
       </c>
       <c r="H7">
-        <v>6.05493698470008</v>
+        <v>18.569678</v>
       </c>
       <c r="I7">
-        <v>0.7199620005377894</v>
+        <v>0.6429093297593833</v>
       </c>
       <c r="J7">
-        <v>0.7199620005377894</v>
+        <v>0.6429093297593833</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.846400789955351</v>
+        <v>12.90571233333333</v>
       </c>
       <c r="N7">
-        <v>0.846400789955351</v>
+        <v>38.717137</v>
       </c>
       <c r="O7">
-        <v>0.04064105477203254</v>
+        <v>0.5973075912162077</v>
       </c>
       <c r="P7">
-        <v>0.04064105477203254</v>
+        <v>0.5973075912162077</v>
       </c>
       <c r="Q7">
-        <v>5.124903446980019</v>
+        <v>79.88497413020956</v>
       </c>
       <c r="R7">
-        <v>5.124903446980019</v>
+        <v>718.964767171886</v>
       </c>
       <c r="S7">
-        <v>0.02926001509763842</v>
+        <v>0.3840146231290038</v>
       </c>
       <c r="T7">
-        <v>0.02926001509763842</v>
+        <v>0.3840146231290038</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.748474797717972</v>
+        <v>6.189892666666666</v>
       </c>
       <c r="H8">
-        <v>0.748474797717972</v>
+        <v>18.569678</v>
       </c>
       <c r="I8">
-        <v>0.08899736100950362</v>
+        <v>0.6429093297593833</v>
       </c>
       <c r="J8">
-        <v>0.08899736100950362</v>
+        <v>0.6429093297593833</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>7.14773152424498</v>
+        <v>0.02123933333333333</v>
       </c>
       <c r="N8">
-        <v>7.14773152424498</v>
+        <v>0.063718</v>
       </c>
       <c r="O8">
-        <v>0.3432077944869921</v>
+        <v>0.0009830077336842938</v>
       </c>
       <c r="P8">
-        <v>0.3432077944869921</v>
+        <v>0.0009830077336842938</v>
       </c>
       <c r="Q8">
-        <v>5.349896906751633</v>
+        <v>0.1314691936448889</v>
       </c>
       <c r="R8">
-        <v>5.349896906751633</v>
+        <v>1.183222742804</v>
       </c>
       <c r="S8">
-        <v>0.03054458798723436</v>
+        <v>0.0006319848432112596</v>
       </c>
       <c r="T8">
-        <v>0.03054458798723436</v>
+        <v>0.0006319848432112596</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.748474797717972</v>
+        <v>6.189892666666666</v>
       </c>
       <c r="H9">
-        <v>0.748474797717972</v>
+        <v>18.569678</v>
       </c>
       <c r="I9">
-        <v>0.08899736100950362</v>
+        <v>0.6429093297593833</v>
       </c>
       <c r="J9">
-        <v>0.08899736100950362</v>
+        <v>0.6429093297593833</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.8321182519589</v>
+        <v>1.490109666666666</v>
       </c>
       <c r="N9">
-        <v>12.8321182519589</v>
+        <v>4.470329</v>
       </c>
       <c r="O9">
-        <v>0.6161511507409755</v>
+        <v>0.0689658805849709</v>
       </c>
       <c r="P9">
-        <v>0.6161511507409755</v>
+        <v>0.0689658805849709</v>
       </c>
       <c r="Q9">
-        <v>9.604517112928033</v>
+        <v>9.223618898229109</v>
       </c>
       <c r="R9">
-        <v>9.604517112928033</v>
+        <v>83.01257008406199</v>
       </c>
       <c r="S9">
-        <v>0.05483582639891568</v>
+        <v>0.04433880806314931</v>
       </c>
       <c r="T9">
-        <v>0.05483582639891568</v>
+        <v>0.04433880806314931</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.748474797717972</v>
+        <v>1.012114666666667</v>
       </c>
       <c r="H10">
-        <v>0.748474797717972</v>
+        <v>3.036344</v>
       </c>
       <c r="I10">
-        <v>0.08899736100950362</v>
+        <v>0.105122656728831</v>
       </c>
       <c r="J10">
-        <v>0.08899736100950362</v>
+        <v>0.105122656728831</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.846400789955351</v>
+        <v>7.189414999999999</v>
       </c>
       <c r="N10">
-        <v>0.846400789955351</v>
+        <v>21.568245</v>
       </c>
       <c r="O10">
-        <v>0.04064105477203254</v>
+        <v>0.3327435204651371</v>
       </c>
       <c r="P10">
-        <v>0.04064105477203254</v>
+        <v>0.3327435204651371</v>
       </c>
       <c r="Q10">
-        <v>0.633509660050163</v>
+        <v>7.276512366253333</v>
       </c>
       <c r="R10">
-        <v>0.633509660050163</v>
+        <v>65.48861129628</v>
       </c>
       <c r="S10">
-        <v>0.00361694662335359</v>
+        <v>0.03497888288059936</v>
       </c>
       <c r="T10">
-        <v>0.00361694662335359</v>
+        <v>0.03497888288059936</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.838746047373982</v>
+        <v>1.012114666666667</v>
       </c>
       <c r="H11">
-        <v>0.838746047373982</v>
+        <v>3.036344</v>
       </c>
       <c r="I11">
-        <v>0.09973105975114402</v>
+        <v>0.105122656728831</v>
       </c>
       <c r="J11">
-        <v>0.09973105975114402</v>
+        <v>0.105122656728831</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.14773152424498</v>
+        <v>12.90571233333333</v>
       </c>
       <c r="N11">
-        <v>7.14773152424498</v>
+        <v>38.717137</v>
       </c>
       <c r="O11">
-        <v>0.3432077944869921</v>
+        <v>0.5973075912162077</v>
       </c>
       <c r="P11">
-        <v>0.3432077944869921</v>
+        <v>0.5973075912162077</v>
       </c>
       <c r="Q11">
-        <v>5.995131563650884</v>
+        <v>13.06206073634756</v>
       </c>
       <c r="R11">
-        <v>5.995131563650884</v>
+        <v>117.558546627128</v>
       </c>
       <c r="S11">
-        <v>0.03422847705904057</v>
+        <v>0.06279056087294631</v>
       </c>
       <c r="T11">
-        <v>0.03422847705904057</v>
+        <v>0.06279056087294631</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.838746047373982</v>
+        <v>1.012114666666667</v>
       </c>
       <c r="H12">
-        <v>0.838746047373982</v>
+        <v>3.036344</v>
       </c>
       <c r="I12">
-        <v>0.09973105975114402</v>
+        <v>0.105122656728831</v>
       </c>
       <c r="J12">
-        <v>0.09973105975114402</v>
+        <v>0.105122656728831</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>12.8321182519589</v>
+        <v>0.02123933333333333</v>
       </c>
       <c r="N12">
-        <v>12.8321182519589</v>
+        <v>0.063718</v>
       </c>
       <c r="O12">
-        <v>0.6161511507409755</v>
+        <v>0.0009830077336842938</v>
       </c>
       <c r="P12">
-        <v>0.6161511507409755</v>
+        <v>0.0009830077336842938</v>
       </c>
       <c r="Q12">
-        <v>10.76288846326606</v>
+        <v>0.02149664077688889</v>
       </c>
       <c r="R12">
-        <v>10.76288846326606</v>
+        <v>0.193469766992</v>
       </c>
       <c r="S12">
-        <v>0.06144940723028437</v>
+        <v>0.0001033363845498801</v>
       </c>
       <c r="T12">
-        <v>0.06144940723028437</v>
+        <v>0.0001033363845498801</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.838746047373982</v>
+        <v>1.012114666666667</v>
       </c>
       <c r="H13">
-        <v>0.838746047373982</v>
+        <v>3.036344</v>
       </c>
       <c r="I13">
-        <v>0.09973105975114402</v>
+        <v>0.105122656728831</v>
       </c>
       <c r="J13">
-        <v>0.09973105975114402</v>
+        <v>0.105122656728831</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.846400789955351</v>
+        <v>1.490109666666666</v>
       </c>
       <c r="N13">
-        <v>0.846400789955351</v>
+        <v>4.470329</v>
       </c>
       <c r="O13">
-        <v>0.04064105477203254</v>
+        <v>0.0689658805849709</v>
       </c>
       <c r="P13">
-        <v>0.04064105477203254</v>
+        <v>0.0689658805849709</v>
       </c>
       <c r="Q13">
-        <v>0.7099153170692666</v>
+        <v>1.508161848575111</v>
       </c>
       <c r="R13">
-        <v>0.7099153170692666</v>
+        <v>13.573456637176</v>
       </c>
       <c r="S13">
-        <v>0.004053175461819094</v>
+        <v>0.007249876590735446</v>
       </c>
       <c r="T13">
-        <v>0.004053175461819094</v>
+        <v>0.007249876590735446</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.008073333333333</v>
+      </c>
+      <c r="H14">
+        <v>3.02422</v>
+      </c>
+      <c r="I14">
+        <v>0.1047029061702051</v>
+      </c>
+      <c r="J14">
+        <v>0.1047029061702051</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>7.189414999999999</v>
+      </c>
+      <c r="N14">
+        <v>21.568245</v>
+      </c>
+      <c r="O14">
+        <v>0.3327435204651371</v>
+      </c>
+      <c r="P14">
+        <v>0.3327435204651371</v>
+      </c>
+      <c r="Q14">
+        <v>7.247457543766666</v>
+      </c>
+      <c r="R14">
+        <v>65.2271178939</v>
+      </c>
+      <c r="S14">
+        <v>0.03483921360200497</v>
+      </c>
+      <c r="T14">
+        <v>0.03483921360200497</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.008073333333333</v>
+      </c>
+      <c r="H15">
+        <v>3.02422</v>
+      </c>
+      <c r="I15">
+        <v>0.1047029061702051</v>
+      </c>
+      <c r="J15">
+        <v>0.1047029061702051</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>12.90571233333333</v>
+      </c>
+      <c r="N15">
+        <v>38.717137</v>
+      </c>
+      <c r="O15">
+        <v>0.5973075912162077</v>
+      </c>
+      <c r="P15">
+        <v>0.5973075912162077</v>
+      </c>
+      <c r="Q15">
+        <v>13.00990445090445</v>
+      </c>
+      <c r="R15">
+        <v>117.08914005814</v>
+      </c>
+      <c r="S15">
+        <v>0.06253984067786184</v>
+      </c>
+      <c r="T15">
+        <v>0.06253984067786184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.008073333333333</v>
+      </c>
+      <c r="H16">
+        <v>3.02422</v>
+      </c>
+      <c r="I16">
+        <v>0.1047029061702051</v>
+      </c>
+      <c r="J16">
+        <v>0.1047029061702051</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.02123933333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.063718</v>
+      </c>
+      <c r="O16">
+        <v>0.0009830077336842938</v>
+      </c>
+      <c r="P16">
+        <v>0.0009830077336842938</v>
+      </c>
+      <c r="Q16">
+        <v>0.02141080555111111</v>
+      </c>
+      <c r="R16">
+        <v>0.19269724996</v>
+      </c>
+      <c r="S16">
+        <v>0.0001029237665045326</v>
+      </c>
+      <c r="T16">
+        <v>0.0001029237665045326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.008073333333333</v>
+      </c>
+      <c r="H17">
+        <v>3.02422</v>
+      </c>
+      <c r="I17">
+        <v>0.1047029061702051</v>
+      </c>
+      <c r="J17">
+        <v>0.1047029061702051</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.490109666666666</v>
+      </c>
+      <c r="N17">
+        <v>4.470329</v>
+      </c>
+      <c r="O17">
+        <v>0.0689658805849709</v>
+      </c>
+      <c r="P17">
+        <v>0.0689658805849709</v>
+      </c>
+      <c r="Q17">
+        <v>1.502139818708889</v>
+      </c>
+      <c r="R17">
+        <v>13.51925836838</v>
+      </c>
+      <c r="S17">
+        <v>0.00722092812383378</v>
+      </c>
+      <c r="T17">
+        <v>0.00722092812383378</v>
       </c>
     </row>
   </sheetData>
